--- a/Plan_Accion.xlsx
+++ b/Plan_Accion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberto\Documents\Sistema Estadistico\Repositorios de GitHub\Plan Estadístico\PlanE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592080E6-0036-43B6-AFE4-EDAD112E4A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56776C91-76D7-427C-9F4A-731D03873AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1027,6 +1027,174 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">Socializar, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>entre los integrantes de la comunidad universitaria, los distintos mecanismos que tiene la Universidad para la difusión de la información estadística oficial institucional</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Construir y fomentar el uso de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cursos o espacios virtuales</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  para fomentar el uso y aprovechamiento del valor contenido en los datos institucionales.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Construir </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LINEAMIENTOS CONCEPTUALES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> que orienten la actividad estadística en la Universidad y que aporten al fortalecimiento de la producción estadística a nivel nacional e internacional.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aportar en la generación y construcción de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DIRECTRÍCES TÉCNICAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a nivel de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>software y hardware</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> para la gestión estadística institucional</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aportar en la generación de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>directrices técnicas en materia de adquisición de hardware y software</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> requerido para la gestíon estadística insitucional.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Desarrollar estrategias que promuevan el</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> uso de la información estadística</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> estratégica para la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>toma de decisiones, la planeación institucional, la transparencia y la rendición permanente de cuentas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>Promover la DIFUSIÓN y CONOCIMIENTO</t>
     </r>
     <r>
@@ -1036,175 +1204,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> de la información estadística oficial institucional.  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Socializar, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>entre los integrantes de la comunidad universitaria, los distintos mecanismos que tiene la Universidad para la difusión de la información estadística oficial institucional</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Construir y fomentar el uso de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>cursos o espacios virtuales</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  para fomentar el uso y aprovechamiento del valor contenido en los datos institucionales.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Construir </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>LINEAMIENTOS CONCEPTUALES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> que orienten la actividad estadística en la Universidad y que aporten al fortalecimiento de la producción estadística a nivel nacional e internacional.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Aportar en la generación y construcción de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DIRECTRÍCES TÉCNICAS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a nivel de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>software y hardware</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> para la gestión estadística institucional</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Aportar en la generación de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>directrices técnicas en materia de adquisición de hardware y software</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> requerido para la gestíon estadística insitucional.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Desarrollar estrategias que promuevan el</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> uso de la información estadística</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> estratégica para la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>toma de decisiones, la planeación institucional, la transparencia y la rendición permanente de cuentas.</t>
+      <t xml:space="preserve"> de la información estadística oficial institucional </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a nivel institucional, nacional e internacional.</t>
     </r>
   </si>
 </sst>
@@ -2042,12 +2052,71 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2086,65 +2155,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2487,11 +2497,11 @@
   <dimension ref="A1:AL74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="8" topLeftCell="H37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="8" topLeftCell="H34" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37:E39"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2771,14 +2781,14 @@
     </row>
     <row r="9" spans="2:38" s="2" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="91" t="s">
-        <v>91</v>
+      <c r="E9" s="112" t="s">
+        <v>90</v>
       </c>
       <c r="F9" s="67" t="s">
         <v>1</v>
@@ -2800,9 +2810,9 @@
     </row>
     <row r="10" spans="2:38" s="2" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="92"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="113"/>
       <c r="F10" s="74" t="s">
         <v>2</v>
       </c>
@@ -2821,9 +2831,9 @@
     </row>
     <row r="11" spans="2:38" s="2" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="92"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="113"/>
       <c r="F11" s="74" t="s">
         <v>3</v>
       </c>
@@ -2842,9 +2852,9 @@
     </row>
     <row r="12" spans="2:38" s="2" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="93"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="114"/>
       <c r="F12" s="74" t="s">
         <v>4</v>
       </c>
@@ -2865,11 +2875,11 @@
     </row>
     <row r="13" spans="2:38" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="97">
+      <c r="C13" s="110"/>
+      <c r="D13" s="118">
         <v>2</v>
       </c>
-      <c r="E13" s="94" t="s">
+      <c r="E13" s="115" t="s">
         <v>55</v>
       </c>
       <c r="F13" s="75" t="s">
@@ -2888,9 +2898,9 @@
     </row>
     <row r="14" spans="2:38" s="2" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="95"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="76" t="s">
         <v>8</v>
       </c>
@@ -2909,9 +2919,9 @@
     </row>
     <row r="15" spans="2:38" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="95"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="116"/>
       <c r="F15" s="76" t="s">
         <v>9</v>
       </c>
@@ -2928,9 +2938,9 @@
     </row>
     <row r="16" spans="2:38" s="2" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="96"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="117"/>
       <c r="F16" s="77" t="s">
         <v>10</v>
       </c>
@@ -2990,8 +3000,8 @@
     <row r="19" spans="2:14" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="102"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
       <c r="F19" s="47">
         <v>3.2</v>
       </c>
@@ -3009,10 +3019,10 @@
     <row r="20" spans="2:14" s="2" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="102"/>
-      <c r="D20" s="87">
+      <c r="D20" s="100">
         <v>4</v>
       </c>
-      <c r="E20" s="87" t="s">
+      <c r="E20" s="100" t="s">
         <v>70</v>
       </c>
       <c r="F20" s="47">
@@ -3034,12 +3044,12 @@
     <row r="21" spans="2:14" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="102"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87">
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100">
         <v>4.2</v>
       </c>
-      <c r="G21" s="86" t="s">
+      <c r="G21" s="99" t="s">
         <v>74</v>
       </c>
       <c r="H21" s="7"/>
@@ -3055,10 +3065,10 @@
     <row r="22" spans="2:14" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="102"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="86"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="99"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -3072,12 +3082,12 @@
     <row r="23" spans="2:14" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="102"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87">
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100">
         <v>4.3</v>
       </c>
-      <c r="G23" s="86" t="s">
+      <c r="G23" s="99" t="s">
         <v>75</v>
       </c>
       <c r="H23" s="8"/>
@@ -3093,10 +3103,10 @@
     <row r="24" spans="2:14" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="102"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="86"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="99"/>
       <c r="H24" s="8"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -3110,12 +3120,12 @@
     <row r="25" spans="2:14" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="102"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87">
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G25" s="86" t="s">
+      <c r="G25" s="99" t="s">
         <v>76</v>
       </c>
       <c r="H25" s="8"/>
@@ -3131,10 +3141,10 @@
     <row r="26" spans="2:14" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="102"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="86"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="99"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="7"/>
@@ -3176,7 +3186,7 @@
       <c r="D28" s="104">
         <v>6</v>
       </c>
-      <c r="E28" s="86" t="s">
+      <c r="E28" s="99" t="s">
         <v>80</v>
       </c>
       <c r="F28" s="79">
@@ -3197,7 +3207,7 @@
       <c r="B29" s="3"/>
       <c r="C29" s="107"/>
       <c r="D29" s="105"/>
-      <c r="E29" s="86"/>
+      <c r="E29" s="99"/>
       <c r="F29" s="79">
         <v>6.2</v>
       </c>
@@ -3216,7 +3226,7 @@
       <c r="B30" s="3"/>
       <c r="C30" s="107"/>
       <c r="D30" s="105"/>
-      <c r="E30" s="86"/>
+      <c r="E30" s="99"/>
       <c r="F30" s="80">
         <v>6.3</v>
       </c>
@@ -3237,7 +3247,7 @@
       <c r="D31" s="105">
         <v>7</v>
       </c>
-      <c r="E31" s="86" t="s">
+      <c r="E31" s="99" t="s">
         <v>81</v>
       </c>
       <c r="F31" s="80">
@@ -3258,7 +3268,7 @@
       <c r="B32" s="3"/>
       <c r="C32" s="107"/>
       <c r="D32" s="105"/>
-      <c r="E32" s="86"/>
+      <c r="E32" s="99"/>
       <c r="F32" s="80">
         <v>7.2</v>
       </c>
@@ -3282,33 +3292,33 @@
         <v>8</v>
       </c>
       <c r="E33" s="81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F33" s="40">
         <v>8.1</v>
       </c>
       <c r="G33" s="49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I33" s="46"/>
       <c r="J33" s="46"/>
     </row>
     <row r="34" spans="2:14" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
-      <c r="C34" s="109" t="s">
+      <c r="C34" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="87">
+      <c r="D34" s="100">
         <v>9</v>
       </c>
-      <c r="E34" s="86" t="s">
-        <v>88</v>
+      <c r="E34" s="99" t="s">
+        <v>94</v>
       </c>
       <c r="F34" s="82" t="s">
         <v>36</v>
       </c>
       <c r="G34" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H34" s="50"/>
       <c r="I34" s="50"/>
@@ -3320,9 +3330,9 @@
     </row>
     <row r="35" spans="2:14" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="86"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="99"/>
       <c r="F35" s="83" t="s">
         <v>37</v>
       </c>
@@ -3339,9 +3349,9 @@
     </row>
     <row r="36" spans="2:14" s="2" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="86"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="99"/>
       <c r="F36" s="84" t="s">
         <v>39</v>
       </c>
@@ -3359,36 +3369,36 @@
       <c r="N36" s="64"/>
     </row>
     <row r="37" spans="2:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="109"/>
-      <c r="D37" s="87">
+      <c r="C37" s="98"/>
+      <c r="D37" s="100">
         <v>10</v>
       </c>
-      <c r="E37" s="86" t="s">
+      <c r="E37" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="110" t="s">
+      <c r="F37" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="111" t="s">
-        <v>94</v>
+      <c r="G37" s="87" t="s">
+        <v>93</v>
       </c>
       <c r="H37" s="50"/>
       <c r="I37" s="50"/>
       <c r="J37" s="50"/>
-      <c r="K37" s="113"/>
-      <c r="L37" s="114"/>
-      <c r="M37" s="115" t="s">
+      <c r="K37" s="89"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="116" t="s">
+      <c r="N37" s="92" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="109"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="112" t="s">
+      <c r="C38" s="98"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="88" t="s">
         <v>44</v>
       </c>
       <c r="G38" s="8" t="s">
@@ -3397,22 +3407,22 @@
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
       <c r="J38" s="33"/>
-      <c r="K38" s="117"/>
-      <c r="L38" s="118"/>
-      <c r="M38" s="119"/>
-      <c r="N38" s="120" t="s">
+      <c r="K38" s="93"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="95"/>
+      <c r="N38" s="96" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="109"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="112">
+      <c r="C39" s="98"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="88">
         <v>7.3</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="7"/>
@@ -3420,7 +3430,7 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="121"/>
+      <c r="N39" s="97"/>
     </row>
     <row r="40" spans="2:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
     <row r="41" spans="2:14" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
@@ -3459,11 +3469,17 @@
     <row r="74" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D13:D16"/>
     <mergeCell ref="C18:C27"/>
     <mergeCell ref="E28:E30"/>
     <mergeCell ref="D28:D30"/>
@@ -3474,17 +3490,11 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E20:E26"/>
     <mergeCell ref="D20:D26"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="39" orientation="landscape" r:id="rId1"/>
